--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_83.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_83.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yumiko Sato</t>
+          <t>Asuka Ikeda</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
